--- a/function_ensemble/redes-ensemble-s/Teste01/content/results/metrics_3_9.xlsx
+++ b/function_ensemble/redes-ensemble-s/Teste01/content/results/metrics_3_9.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9988895701705811</v>
+        <v>0.9975670536384577</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.5297337260119017</v>
+        <v>0.6953193315047819</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9984056012983716</v>
+        <v>0.9979500766747453</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9972579149769812</v>
+        <v>0.9977260266575313</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9988932356035167</v>
+        <v>0.9980083722059157</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1642103976458986</v>
+        <v>0.001444302058021982</v>
       </c>
       <c r="H2" t="n">
-        <v>226.2170708906487</v>
+        <v>0.180871606338331</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3709949217714465</v>
+        <v>0.001528198641914323</v>
       </c>
       <c r="J2" t="n">
-        <v>0.04857430950657055</v>
+        <v>0.0004664312976480322</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2097846156390085</v>
+        <v>0.0009973149697811779</v>
       </c>
       <c r="L2" t="n">
-        <v>0.08243107679795665</v>
+        <v>0.02901055699474639</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4052288213415953</v>
+        <v>0.03800397423983421</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9911165613646489</v>
+        <v>0.9805364291076613</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4224802512054089</v>
+        <v>0.03962188210229597</v>
       </c>
       <c r="P2" t="n">
-        <v>45.613213521824</v>
+        <v>55.08025815786245</v>
       </c>
       <c r="Q2" t="n">
-        <v>71.2096058440562</v>
+        <v>80.67665048009465</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9989116878960611</v>
+        <v>0.9976154873158659</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.5301382033424611</v>
+        <v>0.6952481719305967</v>
       </c>
       <c r="D3" t="n">
-        <v>0.998437419909602</v>
+        <v>0.9979908729588999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9973122464179038</v>
+        <v>0.9977712654657035</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9989153044735686</v>
+        <v>0.9980480049746433</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1609396277153002</v>
+        <v>0.001415549734886512</v>
       </c>
       <c r="H3" t="n">
-        <v>226.2768850108481</v>
+        <v>0.1809138497355008</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3635911631179436</v>
+        <v>0.001497785394124995</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04761186224284319</v>
+        <v>0.0004571520349558435</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2056015126803934</v>
+        <v>0.0009774687145404195</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08160204719818699</v>
+        <v>0.02872028207553907</v>
       </c>
       <c r="M3" t="n">
-        <v>0.40117281527454</v>
+        <v>0.03762379213857253</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9912935031684889</v>
+        <v>0.9809238985269273</v>
       </c>
       <c r="O3" t="n">
-        <v>0.418251572562989</v>
+        <v>0.03922551486189813</v>
       </c>
       <c r="P3" t="n">
-        <v>45.65345193491243</v>
+        <v>55.1204746362308</v>
       </c>
       <c r="Q3" t="n">
-        <v>71.24984425714463</v>
+        <v>80.716866958463</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9989333577326095</v>
+        <v>0.9976629458019548</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.5305433113502935</v>
+        <v>0.6951783162235879</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9984685828589082</v>
+        <v>0.9980308915072145</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9973655908238677</v>
+        <v>0.9978156022795733</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9989369247801417</v>
+        <v>0.998086874085065</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1577350916138242</v>
+        <v>0.001387376327444293</v>
       </c>
       <c r="H4" t="n">
-        <v>226.3367923956223</v>
+        <v>0.1809553191007907</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3563399680886249</v>
+        <v>0.00146795194112103</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04666689968187857</v>
+        <v>0.0004480577869096351</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2015034338852518</v>
+        <v>0.0009580048640153322</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08078393995195281</v>
+        <v>0.02843298215339574</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3971587738094479</v>
+        <v>0.03724750095569223</v>
       </c>
       <c r="N4" t="n">
-        <v>0.991466861860876</v>
+        <v>0.9813035664156384</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4140666450425167</v>
+        <v>0.03883320418433248</v>
       </c>
       <c r="P4" t="n">
-        <v>45.69367657687363</v>
+        <v>55.16068169937957</v>
       </c>
       <c r="Q4" t="n">
-        <v>71.29006889910583</v>
+        <v>80.75707402161177</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9989545831246087</v>
+        <v>0.9977094413289607</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.5309380829182218</v>
+        <v>0.6951020125702472</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9984991150170296</v>
+        <v>0.9980700524615155</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9974177659759218</v>
+        <v>0.9978590530931134</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9989581032740162</v>
+        <v>0.998124923368968</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1545962799860733</v>
+        <v>0.001359774574111478</v>
       </c>
       <c r="H5" t="n">
-        <v>226.3951712273425</v>
+        <v>0.18100061624556</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3492355496002102</v>
+        <v>0.001438757816422979</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04574264971765252</v>
+        <v>0.0004391452728687386</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1974890996589314</v>
+        <v>0.0009389515446458591</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07997388342169018</v>
+        <v>0.02814869939451135</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3931873344680284</v>
+        <v>0.03687512134368479</v>
       </c>
       <c r="N5" t="n">
-        <v>0.9916366649968698</v>
+        <v>0.9816755306316853</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4099261333063202</v>
+        <v>0.03844497160130984</v>
       </c>
       <c r="P5" t="n">
-        <v>45.73387641060825</v>
+        <v>55.20087269460548</v>
       </c>
       <c r="Q5" t="n">
-        <v>71.33026873284047</v>
+        <v>80.79726501683768</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.998975390160376</v>
+        <v>0.9977550066909348</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5313357144591517</v>
+        <v>0.6950248508744037</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9985290155118931</v>
+        <v>0.9981084395243942</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9974689960785185</v>
+        <v>0.9979016365038224</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9989788498965464</v>
+        <v>0.9981622189408589</v>
       </c>
       <c r="G6" t="n">
-        <v>0.151519334890896</v>
+        <v>0.001332725006922468</v>
       </c>
       <c r="H6" t="n">
-        <v>226.4539729919591</v>
+        <v>0.1810464227614243</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3422781105722567</v>
+        <v>0.001410140620533005</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04483514070947305</v>
+        <v>0.00043041067816427</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1935566256408649</v>
+        <v>0.0009202756493486374</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07917079118258387</v>
+        <v>0.02786727937552395</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3892548456871103</v>
+        <v>0.03650650636424237</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9918031212830076</v>
+        <v>0.982040053527478</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4058262303366243</v>
+        <v>0.03806066391905433</v>
       </c>
       <c r="P6" t="n">
-        <v>45.77408407826724</v>
+        <v>55.24105911089967</v>
       </c>
       <c r="Q6" t="n">
-        <v>71.37047640049946</v>
+        <v>80.83745143313187</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.998995811007087</v>
+        <v>0.9977996821335069</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.531720446817473</v>
+        <v>0.6949536302150565</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9985584032004113</v>
+        <v>0.9981460625323585</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9975191510116947</v>
+        <v>0.9979434609904101</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9989992315211356</v>
+        <v>0.9981987903400966</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1484994994453226</v>
+        <v>0.001306203734333036</v>
       </c>
       <c r="H7" t="n">
-        <v>226.510867225051</v>
+        <v>0.1810887024213851</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3354399946155986</v>
+        <v>0.001382093020426452</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04394667765054767</v>
+        <v>0.0004218317519349062</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1896933361330732</v>
+        <v>0.0009019623861806791</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07837636959663725</v>
+        <v>0.02758865852420481</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3853563278905934</v>
+        <v>0.03614144067871446</v>
       </c>
       <c r="N7" t="n">
-        <v>0.9919664880566961</v>
+        <v>0.9823974570680551</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4017617445664654</v>
+        <v>0.03768005663150335</v>
       </c>
       <c r="P7" t="n">
-        <v>45.81434738296726</v>
+        <v>55.28126052314165</v>
       </c>
       <c r="Q7" t="n">
-        <v>71.41073970519948</v>
+        <v>80.87765284537385</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.999015841794504</v>
+        <v>0.9978434761139902</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.5320750433434192</v>
+        <v>0.6948834257178249</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9985872931274901</v>
+        <v>0.9981829892749184</v>
       </c>
       <c r="E8" t="n">
-        <v>0.997567690128661</v>
+        <v>0.9979843937610966</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9990192321189079</v>
+        <v>0.9982346608301662</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1455373459802919</v>
+        <v>0.001280205735716682</v>
       </c>
       <c r="H8" t="n">
-        <v>226.5633049703158</v>
+        <v>0.1811303788436182</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3287177009850368</v>
+        <v>0.001354564479658561</v>
       </c>
       <c r="J8" t="n">
-        <v>0.04308683775831117</v>
+        <v>0.0004134357320735033</v>
       </c>
       <c r="K8" t="n">
-        <v>0.185902269371674</v>
+        <v>0.000884000105866032</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07759415911608522</v>
+        <v>0.02731262847664533</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3814935726592152</v>
+        <v>0.03577996276852006</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9921267343560318</v>
+        <v>0.9827478089119213</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3977345438478817</v>
+        <v>0.03730318985830956</v>
       </c>
       <c r="P8" t="n">
-        <v>45.85464510380301</v>
+        <v>55.3214689658756</v>
       </c>
       <c r="Q8" t="n">
-        <v>71.45103742603521</v>
+        <v>80.91786128810782</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9990544893732445</v>
+        <v>0.997886374931836</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.5328498884815724</v>
+        <v>0.6948074989713557</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9986426941256372</v>
+        <v>0.9982190764754272</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9976628391359087</v>
+        <v>0.9980245569363411</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9990576830381819</v>
+        <v>0.9982697487717511</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1398221408363925</v>
+        <v>0.001254739144311028</v>
       </c>
       <c r="H9" t="n">
-        <v>226.6778890933996</v>
+        <v>0.1811754522401869</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3158266412064095</v>
+        <v>0.001327661809627663</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04140133300973736</v>
+        <v>0.0004051975695598734</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1786139871080735</v>
+        <v>0.0008664296895937682</v>
       </c>
       <c r="L9" t="n">
-        <v>0.07603712404473088</v>
+        <v>0.02703955756626914</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3739279888379479</v>
+        <v>0.03542229727602415</v>
       </c>
       <c r="N9" t="n">
-        <v>0.9924359149859558</v>
+        <v>0.9830909994546877</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3898468774604256</v>
+        <v>0.03693029780532846</v>
       </c>
       <c r="P9" t="n">
-        <v>45.93476817328189</v>
+        <v>55.36165516228294</v>
       </c>
       <c r="Q9" t="n">
-        <v>71.5311604955141</v>
+        <v>80.95804748451515</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9990733547307522</v>
+        <v>0.9979284370185041</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.5332143933691793</v>
+        <v>0.6947307998035059</v>
       </c>
       <c r="D10" t="n">
-        <v>0.998669879303967</v>
+        <v>0.9982544667615139</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9977089958360994</v>
+        <v>0.9980639487166691</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9990765259459505</v>
+        <v>0.9983041599638304</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1370323311825038</v>
+        <v>0.001229769272677234</v>
       </c>
       <c r="H10" t="n">
-        <v>226.7317920874944</v>
+        <v>0.1812209841794541</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3095010194547654</v>
+        <v>0.001301278682771935</v>
       </c>
       <c r="J10" t="n">
-        <v>0.04058369613048513</v>
+        <v>0.0003971176334973121</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1750423577926253</v>
+        <v>0.0008491981581346236</v>
       </c>
       <c r="L10" t="n">
-        <v>0.07527423899376318</v>
+        <v>0.02676909882430146</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3701787827287023</v>
+        <v>0.03506806628083781</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9925868378460176</v>
+        <v>0.9834274961480327</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3859380598851827</v>
+        <v>0.03656098646331778</v>
       </c>
       <c r="P10" t="n">
-        <v>45.9750767739267</v>
+        <v>55.40185742076596</v>
       </c>
       <c r="Q10" t="n">
-        <v>71.57146909615891</v>
+        <v>80.99824974299815</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9991275996307601</v>
+        <v>0.9979696386527438</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.534264572926378</v>
+        <v>0.6946566406031212</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9987479599110312</v>
+        <v>0.9982891636832173</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9978412081588148</v>
+        <v>0.9981024763512998</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9991306293661375</v>
+        <v>0.998337878052785</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1290105936853947</v>
+        <v>0.001205310202774681</v>
       </c>
       <c r="H11" t="n">
-        <v>226.887092673014</v>
+        <v>0.1812650082843131</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2913327227294631</v>
+        <v>0.001275412452570782</v>
       </c>
       <c r="J11" t="n">
-        <v>0.03824163808697117</v>
+        <v>0.0003892149486766822</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1647871804082171</v>
+        <v>0.0008323137006237321</v>
       </c>
       <c r="L11" t="n">
-        <v>0.073017436398757</v>
+        <v>0.02650144599106319</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3591804472481689</v>
+        <v>0.0347175777204384</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9930207970460811</v>
+        <v>0.9837571092219504</v>
       </c>
       <c r="O11" t="n">
-        <v>0.37447150249355</v>
+        <v>0.03619557687929083</v>
       </c>
       <c r="P11" t="n">
-        <v>46.0957215128001</v>
+        <v>55.44203663096064</v>
       </c>
       <c r="Q11" t="n">
-        <v>71.6921138350323</v>
+        <v>81.03842895319285</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9991449536780317</v>
+        <v>0.9980100468994449</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.5346286702554228</v>
+        <v>0.6945756519734859</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9987728657698375</v>
+        <v>0.9983232324862586</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9978840716338309</v>
+        <v>0.9981401773238462</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9991479193555937</v>
+        <v>0.9983709592824459</v>
       </c>
       <c r="G12" t="n">
-        <v>0.126444276636145</v>
+        <v>0.001181322121987452</v>
       </c>
       <c r="H12" t="n">
-        <v>226.9409353973359</v>
+        <v>0.1813130866333913</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2855374676718282</v>
+        <v>0.00125001447894997</v>
       </c>
       <c r="J12" t="n">
-        <v>0.03748233861796157</v>
+        <v>0.0003814818265599889</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1615099031448949</v>
+        <v>0.0008157481527549794</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0722856458365998</v>
+        <v>0.02623630506956063</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3555900401250646</v>
+        <v>0.0343703669166835</v>
       </c>
       <c r="N12" t="n">
-        <v>0.9931596294242535</v>
+        <v>0.9840803751955596</v>
       </c>
       <c r="O12" t="n">
-        <v>0.3707282443060477</v>
+        <v>0.03583358459279463</v>
       </c>
       <c r="P12" t="n">
-        <v>46.13590713752725</v>
+        <v>55.48224205073878</v>
       </c>
       <c r="Q12" t="n">
-        <v>71.73229945975946</v>
+        <v>81.07863437297098</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9991619740900081</v>
+        <v>0.9980496435178504</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.5349629706612713</v>
+        <v>0.6944974430294388</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9987974489297577</v>
+        <v>0.998356543538631</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9979252016265645</v>
+        <v>0.9981772605624006</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9991649302722624</v>
+        <v>0.9984033499490866</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1239272975847032</v>
+        <v>0.001157815858817131</v>
       </c>
       <c r="H13" t="n">
-        <v>226.9903717517305</v>
+        <v>0.1813595148410281</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2798173002618675</v>
+        <v>0.001225181401356771</v>
       </c>
       <c r="J13" t="n">
-        <v>0.03675374669602068</v>
+        <v>0.0003738754123787384</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1582855234789441</v>
+        <v>0.0007995284068677546</v>
       </c>
       <c r="L13" t="n">
-        <v>0.07156408942694227</v>
+        <v>0.02597397136946115</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3520330916046149</v>
+        <v>0.03402669332769687</v>
       </c>
       <c r="N13" t="n">
-        <v>0.9932957927200645</v>
+        <v>0.9843971481428033</v>
       </c>
       <c r="O13" t="n">
-        <v>0.367019869123184</v>
+        <v>0.03547528010762244</v>
       </c>
       <c r="P13" t="n">
-        <v>46.17612039024937</v>
+        <v>55.52243985808265</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.77251271248157</v>
+        <v>81.11883218031485</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9991786379426507</v>
+        <v>0.998088441670167</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.5353181944322518</v>
+        <v>0.6944218569985496</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9988213842287281</v>
+        <v>0.9983891966342912</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9979663815726511</v>
+        <v>0.9982135429995518</v>
       </c>
       <c r="F14" t="n">
-        <v>0.999181545870041</v>
+        <v>0.998435086842416</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1214630465386173</v>
+        <v>0.001134783599609102</v>
       </c>
       <c r="H14" t="n">
-        <v>227.0429022540105</v>
+        <v>0.1814043859741105</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2742478812953152</v>
+        <v>0.001200838824330891</v>
       </c>
       <c r="J14" t="n">
-        <v>0.03602426988188892</v>
+        <v>0.0003664332564280872</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1551360755886021</v>
+        <v>0.0007836360403794893</v>
       </c>
       <c r="L14" t="n">
-        <v>0.07084542207387902</v>
+        <v>0.02571436161635744</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3485154896681312</v>
+        <v>0.03368654923866649</v>
       </c>
       <c r="N14" t="n">
-        <v>0.9934291035412057</v>
+        <v>0.9847075333613358</v>
       </c>
       <c r="O14" t="n">
-        <v>0.3633525155898244</v>
+        <v>0.03512065538052671</v>
       </c>
       <c r="P14" t="n">
-        <v>46.2162904123554</v>
+        <v>55.56262661472854</v>
       </c>
       <c r="Q14" t="n">
-        <v>71.8126827345876</v>
+        <v>81.15901893696075</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9991950117975975</v>
+        <v>0.9981264749152368</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.5356769556036305</v>
+        <v>0.694345476300529</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9988448846689481</v>
+        <v>0.998421226087727</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9980069353260905</v>
+        <v>0.9982491117479573</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9991978652934286</v>
+        <v>0.9984662133464812</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1190416803607776</v>
+        <v>0.001112205422385022</v>
       </c>
       <c r="H15" t="n">
-        <v>227.0959558671711</v>
+        <v>0.1814497288559299</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2687796480534814</v>
+        <v>0.001176961166743001</v>
       </c>
       <c r="J15" t="n">
-        <v>0.03530588567618875</v>
+        <v>0.0003591374903939771</v>
       </c>
       <c r="K15" t="n">
-        <v>0.152042766864835</v>
+        <v>0.0007680493285684891</v>
       </c>
       <c r="L15" t="n">
-        <v>0.07013296945954341</v>
+        <v>0.02545730062964662</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3450241735890076</v>
+        <v>0.0333497439628106</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9935600943807801</v>
+        <v>0.9850117993218941</v>
       </c>
       <c r="O15" t="n">
-        <v>0.3597125669571918</v>
+        <v>0.03476951160679459</v>
       </c>
       <c r="P15" t="n">
-        <v>46.25656318412607</v>
+        <v>55.60282073570807</v>
       </c>
       <c r="Q15" t="n">
-        <v>71.85295550635827</v>
+        <v>81.19921305794028</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9992266536759092</v>
+        <v>0.9981637686436616</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.5363146926195539</v>
+        <v>0.6942678324971603</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9988903342282773</v>
+        <v>0.9984526277287543</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9980844737448549</v>
+        <v>0.9982839867172638</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9992293851723635</v>
+        <v>0.9984967304347948</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1143624784137766</v>
+        <v>0.001090066254186872</v>
       </c>
       <c r="H16" t="n">
-        <v>227.1902644368833</v>
+        <v>0.1814958215716471</v>
       </c>
       <c r="I16" t="n">
-        <v>0.258204152921244</v>
+        <v>0.001153551537426309</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0339323414133043</v>
+        <v>0.0003519840304631511</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1460682471672742</v>
+        <v>0.0007527677839447302</v>
       </c>
       <c r="L16" t="n">
-        <v>0.06873199569160027</v>
+        <v>0.02520263286071692</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3381752185092465</v>
+        <v>0.0330161514139197</v>
       </c>
       <c r="N16" t="n">
-        <v>0.9938132294072739</v>
+        <v>0.985310149149293</v>
       </c>
       <c r="O16" t="n">
-        <v>0.3525720376803939</v>
+        <v>0.03442171733246564</v>
       </c>
       <c r="P16" t="n">
-        <v>46.33676447945827</v>
+        <v>55.64303360186131</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.93315680169047</v>
+        <v>81.23942592409352</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9992420656432379</v>
+        <v>0.9982003328140741</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.5366495443514216</v>
+        <v>0.6941924783150408</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9989124861737881</v>
+        <v>0.9984833980388004</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9981225984098532</v>
+        <v>0.9983182357736525</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9992447633914362</v>
+        <v>0.9985266493878181</v>
       </c>
       <c r="G17" t="n">
-        <v>0.112083356206777</v>
+        <v>0.001068360183140153</v>
       </c>
       <c r="H17" t="n">
-        <v>227.2397823213868</v>
+        <v>0.1815405550692845</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2530496960821583</v>
+        <v>0.001130612559443861</v>
       </c>
       <c r="J17" t="n">
-        <v>0.03325698697975629</v>
+        <v>0.0003449589561070724</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1431533415309573</v>
+        <v>0.0007377857577754664</v>
       </c>
       <c r="L17" t="n">
-        <v>0.06803759310934269</v>
+        <v>0.02495048378980446</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3347885246043792</v>
+        <v>0.03268577952474368</v>
       </c>
       <c r="N17" t="n">
-        <v>0.9939365251459034</v>
+        <v>0.9856026625125924</v>
       </c>
       <c r="O17" t="n">
-        <v>0.3490411652045734</v>
+        <v>0.0340772808280033</v>
       </c>
       <c r="P17" t="n">
-        <v>46.37702486531777</v>
+        <v>55.6832606903379</v>
       </c>
       <c r="Q17" t="n">
-        <v>71.97341718754997</v>
+        <v>81.27965301257009</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9992571492723709</v>
+        <v>0.9982361207724062</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.5369773922709828</v>
+        <v>0.694111027441852</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9989341778010443</v>
+        <v>0.9985135716147064</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9981596622867587</v>
+        <v>0.9983516071898999</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9992598095014495</v>
+        <v>0.9985559444024564</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1098527886623417</v>
+        <v>0.001047114905114893</v>
       </c>
       <c r="H18" t="n">
-        <v>227.288264481909</v>
+        <v>0.1815889078261039</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2480023490485802</v>
+        <v>0.00110811844117455</v>
       </c>
       <c r="J18" t="n">
-        <v>0.03260042373929851</v>
+        <v>0.0003381139009369366</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1403013863939393</v>
+        <v>0.0007231161710557431</v>
       </c>
       <c r="L18" t="n">
-        <v>0.06735447856251776</v>
+        <v>0.02470124978066215</v>
       </c>
       <c r="M18" t="n">
-        <v>0.331440475292837</v>
+        <v>0.03235915488876206</v>
       </c>
       <c r="N18" t="n">
-        <v>0.9940571941789669</v>
+        <v>0.9858889661792496</v>
       </c>
       <c r="O18" t="n">
-        <v>0.3455505825024214</v>
+        <v>0.03373675110506173</v>
       </c>
       <c r="P18" t="n">
-        <v>46.41722818876101</v>
+        <v>55.72343321221974</v>
       </c>
       <c r="Q18" t="n">
-        <v>72.01362051099322</v>
+        <v>81.31982553445195</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9992719315783661</v>
+        <v>0.9982712211631395</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.5373061809831847</v>
+        <v>0.6940340860608698</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9989554003455279</v>
+        <v>0.9985431756267908</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9981963126527132</v>
+        <v>0.9983844759983765</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9992745483687671</v>
+        <v>0.9985847125132908</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1076667807928712</v>
+        <v>0.001026277796917653</v>
       </c>
       <c r="H19" t="n">
-        <v>227.3368857668762</v>
+        <v>0.1816345835535495</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2430641512048215</v>
+        <v>0.001086048927400411</v>
       </c>
       <c r="J19" t="n">
-        <v>0.03195118558495316</v>
+        <v>0.0003313719393212878</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1375076683948873</v>
+        <v>0.0007087104333608496</v>
       </c>
       <c r="L19" t="n">
-        <v>0.06667794559120437</v>
+        <v>0.02445432948505616</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3281261659680178</v>
+        <v>0.03203557080680245</v>
       </c>
       <c r="N19" t="n">
-        <v>0.9941754526269291</v>
+        <v>0.9861697693051159</v>
       </c>
       <c r="O19" t="n">
-        <v>0.3420951761680785</v>
+        <v>0.03339939137882172</v>
       </c>
       <c r="P19" t="n">
-        <v>46.45742836886489</v>
+        <v>55.763633623304</v>
       </c>
       <c r="Q19" t="n">
-        <v>72.05382069109709</v>
+        <v>81.36002594553621</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9992863930259551</v>
+        <v>0.9983056264571613</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.5376340272426672</v>
+        <v>0.6939509201047702</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9989761086503458</v>
+        <v>0.9985721704511997</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9982323573378103</v>
+        <v>0.9984165425754806</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9992889432966456</v>
+        <v>0.9986128628600828</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1055282214744839</v>
+        <v>0.001005853328155026</v>
       </c>
       <c r="H20" t="n">
-        <v>227.3853676819058</v>
+        <v>0.1816839544576725</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2382456099465253</v>
+        <v>0.001064433557333513</v>
       </c>
       <c r="J20" t="n">
-        <v>0.03131267668560105</v>
+        <v>0.0003247945292477246</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1347791433160632</v>
+        <v>0.0006946140432906188</v>
       </c>
       <c r="L20" t="n">
-        <v>0.06600201092552842</v>
+        <v>0.02420983544524681</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3248510758401208</v>
+        <v>0.03171519081063563</v>
       </c>
       <c r="N20" t="n">
-        <v>0.994291144207641</v>
+        <v>0.98644501165729</v>
       </c>
       <c r="O20" t="n">
-        <v>0.3386806586730657</v>
+        <v>0.03306537214294004</v>
       </c>
       <c r="P20" t="n">
-        <v>46.49755371942104</v>
+        <v>55.80383802999322</v>
       </c>
       <c r="Q20" t="n">
-        <v>72.09394604165325</v>
+        <v>81.40023035222544</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9993006181294604</v>
+        <v>0.9983393256171833</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.5379624103514102</v>
+        <v>0.6938752315198751</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9989965485567208</v>
+        <v>0.9986005568041603</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9982674469161388</v>
+        <v>0.9984480516888656</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9993031288529556</v>
+        <v>0.9986404461064864</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1034246127265321</v>
+        <v>0.0009858480510379971</v>
       </c>
       <c r="H21" t="n">
-        <v>227.4339289862209</v>
+        <v>0.1817288864712429</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2334895213603765</v>
+        <v>0.001043271797033113</v>
       </c>
       <c r="J21" t="n">
-        <v>0.030691086901232</v>
+        <v>0.0003183314646332674</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1320903041308042</v>
+        <v>0.0006808016308331903</v>
       </c>
       <c r="L21" t="n">
-        <v>0.06533906323755684</v>
+        <v>0.02396792987651677</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3215969725083433</v>
+        <v>0.03139821732261239</v>
       </c>
       <c r="N21" t="n">
-        <v>0.9944049450356829</v>
+        <v>0.9867146049374664</v>
       </c>
       <c r="O21" t="n">
-        <v>0.335288021425532</v>
+        <v>0.03273490443730609</v>
       </c>
       <c r="P21" t="n">
-        <v>46.53782462225541</v>
+        <v>55.84401664337919</v>
       </c>
       <c r="Q21" t="n">
-        <v>72.13421694448762</v>
+        <v>81.4404089656114</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9993282143312995</v>
+        <v>0.9983723671167759</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.5385818245369409</v>
+        <v>0.6937982335718706</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9990362977371603</v>
+        <v>0.998628338141594</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9983348725338888</v>
+        <v>0.9984789787703406</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9993306773229522</v>
+        <v>0.9986674597932048</v>
       </c>
       <c r="G22" t="n">
-        <v>0.09934368554189403</v>
+        <v>0.0009662331895613865</v>
       </c>
       <c r="H22" t="n">
-        <v>227.5255279752058</v>
+        <v>0.1817745957793164</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2242404269697564</v>
+        <v>0.00102256107014216</v>
       </c>
       <c r="J22" t="n">
-        <v>0.02949668454034199</v>
+        <v>0.0003119877848392169</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1268685557550492</v>
+        <v>0.0006672744274906885</v>
       </c>
       <c r="L22" t="n">
-        <v>0.06403959565976799</v>
+        <v>0.02372832094426962</v>
       </c>
       <c r="M22" t="n">
-        <v>0.315188333448264</v>
+        <v>0.0310842916850519</v>
       </c>
       <c r="N22" t="n">
-        <v>0.9946257146503958</v>
+        <v>0.9869789369342072</v>
       </c>
       <c r="O22" t="n">
-        <v>0.3286065533329533</v>
+        <v>0.03240761433543899</v>
       </c>
       <c r="P22" t="n">
-        <v>46.61833973942068</v>
+        <v>55.88421071164372</v>
       </c>
       <c r="Q22" t="n">
-        <v>72.21473206165288</v>
+        <v>81.48060303387592</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9993415983884572</v>
+        <v>0.9984047623665473</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.5388950767871583</v>
+        <v>0.693717090144415</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9990555553738709</v>
+        <v>0.9986556048308827</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9983679019475933</v>
+        <v>0.9985093235217674</v>
       </c>
       <c r="F23" t="n">
-        <v>0.999344040941944</v>
+        <v>0.9986939711258167</v>
       </c>
       <c r="G23" t="n">
-        <v>0.09736445075391993</v>
+        <v>0.0009470019698951631</v>
       </c>
       <c r="H23" t="n">
-        <v>227.5718517276923</v>
+        <v>0.1818227660230677</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2197594364762007</v>
+        <v>0.001002234008623797</v>
       </c>
       <c r="J23" t="n">
-        <v>0.02891158927501043</v>
+        <v>0.0003057635510188508</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1243355128756056</v>
+        <v>0.000653998779821324</v>
       </c>
       <c r="L23" t="n">
-        <v>0.06339878059745598</v>
+        <v>0.02349096710020826</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3120327719229503</v>
+        <v>0.03077339711333741</v>
       </c>
       <c r="N23" t="n">
-        <v>0.9947327871076572</v>
+        <v>0.9872380989323783</v>
       </c>
       <c r="O23" t="n">
-        <v>0.3253166530205941</v>
+        <v>0.03208348433816613</v>
       </c>
       <c r="P23" t="n">
-        <v>46.65858823389679</v>
+        <v>55.92441876927526</v>
       </c>
       <c r="Q23" t="n">
-        <v>72.254980556129</v>
+        <v>81.52081109150747</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9993546861580117</v>
+        <v>0.9984365159172766</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.5392060077704168</v>
+        <v>0.6936267256472977</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9990743253005444</v>
+        <v>0.9986824154921462</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9984003774785366</v>
+        <v>0.9985389275257355</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9993570793256433</v>
+        <v>0.9987199912940524</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09542903098590828</v>
+        <v>0.000928151690500332</v>
       </c>
       <c r="H24" t="n">
-        <v>227.6178322111489</v>
+        <v>0.1818764102920996</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2153919294838693</v>
+        <v>0.0009822469117275366</v>
       </c>
       <c r="J24" t="n">
-        <v>0.02833630569401688</v>
+        <v>0.0002996912573254658</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1218641175889431</v>
+        <v>0.0006409690845265012</v>
       </c>
       <c r="L24" t="n">
-        <v>0.06275987909168443</v>
+        <v>0.02325606119419322</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3089158962985044</v>
+        <v>0.03046558206403305</v>
       </c>
       <c r="N24" t="n">
-        <v>0.9948374892640937</v>
+        <v>0.9874921273382125</v>
       </c>
       <c r="O24" t="n">
-        <v>0.3220670855479935</v>
+        <v>0.03176256496494789</v>
       </c>
       <c r="P24" t="n">
-        <v>46.69874487758361</v>
+        <v>55.96463075789053</v>
       </c>
       <c r="Q24" t="n">
-        <v>72.29513719981581</v>
+        <v>81.56102308012272</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.999367529093189</v>
+        <v>0.9984676143564295</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.53951602899402</v>
+        <v>0.6935525297623395</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9990927553971086</v>
+        <v>0.9987085806331306</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9984321576224633</v>
+        <v>0.9985679959145717</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9993698766296383</v>
+        <v>0.9987454212586921</v>
       </c>
       <c r="G25" t="n">
-        <v>0.09352981733319909</v>
+        <v>0.0009096903136365047</v>
       </c>
       <c r="H25" t="n">
-        <v>227.6636781593195</v>
+        <v>0.181920456174506</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2111034963422157</v>
+        <v>0.0009627410441542016</v>
       </c>
       <c r="J25" t="n">
-        <v>0.02777334045614137</v>
+        <v>0.0002937288275677437</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1194384183991785</v>
+        <v>0.0006282349358609726</v>
       </c>
       <c r="L25" t="n">
-        <v>0.06213037059182524</v>
+        <v>0.02302367164855697</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3058264496952464</v>
+        <v>0.03016107281972086</v>
       </c>
       <c r="N25" t="n">
-        <v>0.9949402327455124</v>
+        <v>0.987740914851436</v>
       </c>
       <c r="O25" t="n">
-        <v>0.3188461148067988</v>
+        <v>0.0314450921316843</v>
       </c>
       <c r="P25" t="n">
-        <v>46.73894998313314</v>
+        <v>56.00481266211744</v>
       </c>
       <c r="Q25" t="n">
-        <v>72.33534230536534</v>
+        <v>81.60120498434965</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9993801379012689</v>
+        <v>0.9984980936781678</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.5398199732126778</v>
+        <v>0.6934637952815274</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9991108598842793</v>
+        <v>0.9987342169800341</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9984632561233153</v>
+        <v>0.9985964904302452</v>
       </c>
       <c r="F26" t="n">
-        <v>0.999382442224745</v>
+        <v>0.998770340071478</v>
       </c>
       <c r="G26" t="n">
-        <v>0.09166522640292772</v>
+        <v>0.0008915964716145358</v>
       </c>
       <c r="H26" t="n">
-        <v>227.70862543981</v>
+        <v>0.1819731327954461</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2068908280838068</v>
+        <v>0.0009436293876162263</v>
       </c>
       <c r="J26" t="n">
-        <v>0.02722245009610657</v>
+        <v>0.0002878841091300915</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1170566390899567</v>
+        <v>0.0006157567483731589</v>
       </c>
       <c r="L26" t="n">
-        <v>0.06150492141176295</v>
+        <v>0.02279354641912197</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3027626568831231</v>
+        <v>0.02985961271708888</v>
       </c>
       <c r="N26" t="n">
-        <v>0.9950411032101512</v>
+        <v>0.9879847494253422</v>
       </c>
       <c r="O26" t="n">
-        <v>0.3156518899917379</v>
+        <v>0.03113079824837483</v>
       </c>
       <c r="P26" t="n">
-        <v>46.77922436415034</v>
+        <v>56.04499382764816</v>
       </c>
       <c r="Q26" t="n">
-        <v>72.37561668638254</v>
+        <v>81.64138614988036</v>
       </c>
     </row>
   </sheetData>
